--- a/2018/CRM/03_DetailDesign/CRMF2061_Đanh gia ho tro khach hang.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2061_Đanh gia ho tro khach hang.xlsx
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="214">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2103,6 +2103,32 @@
 @RealTime, @ReviewDescription, @FeedbackDescription,
 20, 
 @RequestID</t>
+  </si>
+  <si>
+    <t>Insert into CRMT20801 (Status)
+Select A.Status
+From CRMT2061  A, CRMT20801
+Where A.RelatedToTypeID = CRMT20801.RelatedToTypeID AND CRMT20801.RequestID = @RequestID AND CRMT20801.DivisionID = @DivisionID</t>
+  </si>
+  <si>
+    <t>Lưu điểm đánh giá khách hàng vào bảng Yêu cầu tương ứng</t>
+  </si>
+  <si>
+    <t>27/02/2018</t>
+  </si>
+  <si>
+    <t>Lưu điểm đánh giá khách hàng qua bảng Yêu cầu</t>
+  </si>
+  <si>
+    <t>SQL003</t>
+  </si>
+  <si>
+    <t>@RequestID
+@DivisionID</t>
+  </si>
+  <si>
+    <t>Biến được truyền từ màn hình CRMT2082
+Biến môi trường</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2652,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3044,75 +3070,108 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3122,48 +3181,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3236,26 +3253,44 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3266,24 +3301,6 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3295,6 +3312,78 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3312,6 +3401,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
@@ -4021,14 +4111,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152759</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>62903</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>62901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>138803</xdr:colOff>
+      <xdr:colOff>453313</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>58858</xdr:rowOff>
     </xdr:to>
@@ -4039,10 +4129,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="808726" y="4951203"/>
-          <a:ext cx="7300525" cy="1829070"/>
+          <a:off x="979460" y="4951203"/>
+          <a:ext cx="7444301" cy="1829070"/>
           <a:chOff x="438150" y="3962400"/>
-          <a:chExt cx="7165382" cy="1824757"/>
+          <a:chExt cx="7306497" cy="1824757"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4184,7 +4274,7 @@
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="lt1"/>
+            <a:srgbClr val="00FFFF"/>
           </a:solidFill>
           <a:ln w="9525" cmpd="sng">
             <a:noFill/>
@@ -4236,7 +4326,7 @@
         <xdr:spPr>
           <a:xfrm flipV="1">
             <a:off x="6199834" y="4608453"/>
-            <a:ext cx="633356" cy="3736"/>
+            <a:ext cx="774470" cy="3736"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4686,6 +4776,36 @@
               <a:t>@SQL001</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>@SQL003</a:t>
+            </a:r>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
@@ -4695,7 +4815,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6833189" y="4344144"/>
+            <a:off x="6974304" y="4344144"/>
             <a:ext cx="770343" cy="528618"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4740,13 +4860,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1392806</xdr:colOff>
+      <xdr:colOff>1563540</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>143773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>397970</xdr:colOff>
+      <xdr:colOff>568704</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>62603</xdr:rowOff>
     </xdr:to>
@@ -4757,7 +4877,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562240" y="5337594"/>
+          <a:off x="5732974" y="5337594"/>
           <a:ext cx="1116838" cy="529867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4877,13 +4997,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>992537</xdr:colOff>
+      <xdr:colOff>1163271</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>103188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1392806</xdr:colOff>
+      <xdr:colOff>1563540</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>103457</xdr:rowOff>
     </xdr:to>
@@ -4897,7 +5017,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5161971" y="5602528"/>
+          <a:off x="5332705" y="5602528"/>
           <a:ext cx="400269" cy="269"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5089,7 +5209,7 @@
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="lt1"/>
+            <a:srgbClr val="00FFFF"/>
           </a:solidFill>
           <a:ln w="9525" cmpd="sng">
             <a:noFill/>
@@ -5563,6 +5683,36 @@
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>@SQL001</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>@SQL003</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -7020,65 +7170,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="176"/>
-      <c r="B1" s="176"/>
-      <c r="C1" s="178" t="s">
+      <c r="A1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="177" t="s">
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="177"/>
+      <c r="J1" s="171"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="177" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="173" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="167" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="174"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="174"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="89"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="175"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
       <c r="K13" s="90"/>
       <c r="L13" s="90"/>
       <c r="M13" s="90"/>
@@ -7089,56 +7239,56 @@
       <c r="R13" s="90"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="169"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="165"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
       <c r="K16" s="91"/>
       <c r="L16" s="91"/>
       <c r="M16" s="91"/>
@@ -7149,384 +7299,384 @@
       <c r="R16" s="91"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="169"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="169"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="165"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="169"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="165"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="171"/>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="171"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="182"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="169"/>
-      <c r="Q20" s="169"/>
-      <c r="R20" s="169"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="165"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="169"/>
-      <c r="P21" s="169"/>
-      <c r="Q21" s="169"/>
-      <c r="R21" s="169"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="165"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="170"/>
-      <c r="R22" s="170"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="181"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="167"/>
-      <c r="O26" s="167"/>
-      <c r="P26" s="167"/>
-      <c r="Q26" s="167"/>
-      <c r="R26" s="167"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="183"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="168"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="168"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="168"/>
-      <c r="Q28" s="168"/>
-      <c r="R28" s="168"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="166"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="166"/>
-      <c r="W28" s="166"/>
-      <c r="X28" s="166"/>
-      <c r="Y28" s="166"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="166"/>
-      <c r="AC28" s="166"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="166"/>
-      <c r="AF28" s="166"/>
-      <c r="AG28" s="166"/>
-      <c r="AH28" s="166"/>
-      <c r="AI28" s="166"/>
-      <c r="AJ28" s="166"/>
-      <c r="AK28" s="166"/>
-      <c r="AL28" s="166"/>
-      <c r="AM28" s="166"/>
-      <c r="AN28" s="166"/>
-      <c r="AO28" s="166"/>
-      <c r="AP28" s="166"/>
-      <c r="AQ28" s="166"/>
-      <c r="AR28" s="166"/>
-      <c r="AS28" s="166"/>
-      <c r="AT28" s="166"/>
-      <c r="AU28" s="166"/>
-      <c r="AV28" s="166"/>
-      <c r="AW28" s="166"/>
-      <c r="AX28" s="166"/>
-      <c r="AY28" s="166"/>
-      <c r="AZ28" s="166"/>
-      <c r="BA28" s="166"/>
-      <c r="BB28" s="166"/>
-      <c r="BC28" s="166"/>
-      <c r="BD28" s="166"/>
-      <c r="BE28" s="166"/>
-      <c r="BF28" s="166"/>
-      <c r="BG28" s="166"/>
-      <c r="BH28" s="166"/>
-      <c r="BI28" s="166"/>
-      <c r="BJ28" s="166"/>
-      <c r="BK28" s="166"/>
-      <c r="BL28" s="166"/>
-      <c r="BM28" s="166"/>
-      <c r="BN28" s="166"/>
-      <c r="BO28" s="166"/>
-      <c r="BP28" s="166"/>
-      <c r="BQ28" s="166"/>
-      <c r="BR28" s="166"/>
-      <c r="BS28" s="166"/>
-      <c r="BT28" s="166"/>
-      <c r="BU28" s="166"/>
-      <c r="BV28" s="166"/>
-      <c r="BW28" s="166"/>
-      <c r="BX28" s="166"/>
-      <c r="BY28" s="166"/>
-      <c r="BZ28" s="166"/>
-      <c r="CA28" s="166"/>
-      <c r="CB28" s="166"/>
-      <c r="CC28" s="166"/>
-      <c r="CD28" s="166"/>
-      <c r="CE28" s="166"/>
-      <c r="CF28" s="166"/>
-      <c r="CG28" s="166"/>
-      <c r="CH28" s="166"/>
-      <c r="CI28" s="166"/>
-      <c r="CJ28" s="166"/>
-      <c r="CK28" s="166"/>
-      <c r="CL28" s="166"/>
-      <c r="CM28" s="166"/>
-      <c r="CN28" s="166"/>
-      <c r="CO28" s="166"/>
-      <c r="CP28" s="166"/>
-      <c r="CQ28" s="166"/>
-      <c r="CR28" s="166"/>
-      <c r="CS28" s="166"/>
-      <c r="CT28" s="166"/>
-      <c r="CU28" s="166"/>
-      <c r="CV28" s="166"/>
-      <c r="CW28" s="166"/>
-      <c r="CX28" s="166"/>
-      <c r="CY28" s="166"/>
-      <c r="CZ28" s="166"/>
-      <c r="DA28" s="166"/>
-      <c r="DB28" s="166"/>
-      <c r="DC28" s="166"/>
-      <c r="DD28" s="166"/>
-      <c r="DE28" s="166"/>
-      <c r="DF28" s="166"/>
-      <c r="DG28" s="166"/>
-      <c r="DH28" s="166"/>
-      <c r="DI28" s="166"/>
-      <c r="DJ28" s="166"/>
-      <c r="DK28" s="166"/>
-      <c r="DL28" s="166"/>
-      <c r="DM28" s="166"/>
-      <c r="DN28" s="166"/>
-      <c r="DO28" s="166"/>
-      <c r="DP28" s="166"/>
-      <c r="DQ28" s="166"/>
-      <c r="DR28" s="166"/>
-      <c r="DS28" s="166"/>
-      <c r="DT28" s="166"/>
-      <c r="DU28" s="166"/>
-      <c r="DV28" s="166"/>
-      <c r="DW28" s="166"/>
-      <c r="DX28" s="166"/>
-      <c r="DY28" s="166"/>
-      <c r="DZ28" s="166"/>
-      <c r="EA28" s="166"/>
-      <c r="EB28" s="166"/>
-      <c r="EC28" s="166"/>
-      <c r="ED28" s="166"/>
-      <c r="EE28" s="166"/>
-      <c r="EF28" s="166"/>
-      <c r="EG28" s="166"/>
-      <c r="EH28" s="166"/>
-      <c r="EI28" s="166"/>
-      <c r="EJ28" s="166"/>
-      <c r="EK28" s="166"/>
-      <c r="EL28" s="166"/>
-      <c r="EM28" s="166"/>
-      <c r="EN28" s="166"/>
-      <c r="EO28" s="166"/>
-      <c r="EP28" s="166"/>
-      <c r="EQ28" s="166"/>
-      <c r="ER28" s="166"/>
-      <c r="ES28" s="166"/>
-      <c r="ET28" s="166"/>
-      <c r="EU28" s="166"/>
-      <c r="EV28" s="166"/>
-      <c r="EW28" s="166"/>
-      <c r="EX28" s="166"/>
-      <c r="EY28" s="166"/>
-      <c r="EZ28" s="166"/>
-      <c r="FA28" s="166"/>
-      <c r="FB28" s="166"/>
-      <c r="FC28" s="166"/>
-      <c r="FD28" s="166"/>
-      <c r="FE28" s="166"/>
-      <c r="FF28" s="166"/>
-      <c r="FG28" s="166"/>
-      <c r="FH28" s="166"/>
-      <c r="FI28" s="166"/>
-      <c r="FJ28" s="166"/>
-      <c r="FK28" s="166"/>
-      <c r="FL28" s="166"/>
-      <c r="FM28" s="166"/>
-      <c r="FN28" s="166"/>
-      <c r="FO28" s="166"/>
-      <c r="FP28" s="166"/>
-      <c r="FQ28" s="166"/>
-      <c r="FR28" s="166"/>
-      <c r="FS28" s="166"/>
-      <c r="FT28" s="166"/>
-      <c r="FU28" s="166"/>
-      <c r="FV28" s="166"/>
-      <c r="FW28" s="166"/>
-      <c r="FX28" s="166"/>
-      <c r="FY28" s="166"/>
-      <c r="FZ28" s="166"/>
-      <c r="GA28" s="166"/>
-      <c r="GB28" s="166"/>
-      <c r="GC28" s="166"/>
-      <c r="GD28" s="166"/>
-      <c r="GE28" s="166"/>
-      <c r="GF28" s="166"/>
-      <c r="GG28" s="166"/>
-      <c r="GH28" s="166"/>
-      <c r="GI28" s="166"/>
-      <c r="GJ28" s="166"/>
-      <c r="GK28" s="166"/>
-      <c r="GL28" s="166"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="185"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="184"/>
+      <c r="U28" s="184"/>
+      <c r="V28" s="184"/>
+      <c r="W28" s="184"/>
+      <c r="X28" s="184"/>
+      <c r="Y28" s="184"/>
+      <c r="Z28" s="184"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="184"/>
+      <c r="AD28" s="184"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="184"/>
+      <c r="AG28" s="184"/>
+      <c r="AH28" s="184"/>
+      <c r="AI28" s="184"/>
+      <c r="AJ28" s="184"/>
+      <c r="AK28" s="184"/>
+      <c r="AL28" s="184"/>
+      <c r="AM28" s="184"/>
+      <c r="AN28" s="184"/>
+      <c r="AO28" s="184"/>
+      <c r="AP28" s="184"/>
+      <c r="AQ28" s="184"/>
+      <c r="AR28" s="184"/>
+      <c r="AS28" s="184"/>
+      <c r="AT28" s="184"/>
+      <c r="AU28" s="184"/>
+      <c r="AV28" s="184"/>
+      <c r="AW28" s="184"/>
+      <c r="AX28" s="184"/>
+      <c r="AY28" s="184"/>
+      <c r="AZ28" s="184"/>
+      <c r="BA28" s="184"/>
+      <c r="BB28" s="184"/>
+      <c r="BC28" s="184"/>
+      <c r="BD28" s="184"/>
+      <c r="BE28" s="184"/>
+      <c r="BF28" s="184"/>
+      <c r="BG28" s="184"/>
+      <c r="BH28" s="184"/>
+      <c r="BI28" s="184"/>
+      <c r="BJ28" s="184"/>
+      <c r="BK28" s="184"/>
+      <c r="BL28" s="184"/>
+      <c r="BM28" s="184"/>
+      <c r="BN28" s="184"/>
+      <c r="BO28" s="184"/>
+      <c r="BP28" s="184"/>
+      <c r="BQ28" s="184"/>
+      <c r="BR28" s="184"/>
+      <c r="BS28" s="184"/>
+      <c r="BT28" s="184"/>
+      <c r="BU28" s="184"/>
+      <c r="BV28" s="184"/>
+      <c r="BW28" s="184"/>
+      <c r="BX28" s="184"/>
+      <c r="BY28" s="184"/>
+      <c r="BZ28" s="184"/>
+      <c r="CA28" s="184"/>
+      <c r="CB28" s="184"/>
+      <c r="CC28" s="184"/>
+      <c r="CD28" s="184"/>
+      <c r="CE28" s="184"/>
+      <c r="CF28" s="184"/>
+      <c r="CG28" s="184"/>
+      <c r="CH28" s="184"/>
+      <c r="CI28" s="184"/>
+      <c r="CJ28" s="184"/>
+      <c r="CK28" s="184"/>
+      <c r="CL28" s="184"/>
+      <c r="CM28" s="184"/>
+      <c r="CN28" s="184"/>
+      <c r="CO28" s="184"/>
+      <c r="CP28" s="184"/>
+      <c r="CQ28" s="184"/>
+      <c r="CR28" s="184"/>
+      <c r="CS28" s="184"/>
+      <c r="CT28" s="184"/>
+      <c r="CU28" s="184"/>
+      <c r="CV28" s="184"/>
+      <c r="CW28" s="184"/>
+      <c r="CX28" s="184"/>
+      <c r="CY28" s="184"/>
+      <c r="CZ28" s="184"/>
+      <c r="DA28" s="184"/>
+      <c r="DB28" s="184"/>
+      <c r="DC28" s="184"/>
+      <c r="DD28" s="184"/>
+      <c r="DE28" s="184"/>
+      <c r="DF28" s="184"/>
+      <c r="DG28" s="184"/>
+      <c r="DH28" s="184"/>
+      <c r="DI28" s="184"/>
+      <c r="DJ28" s="184"/>
+      <c r="DK28" s="184"/>
+      <c r="DL28" s="184"/>
+      <c r="DM28" s="184"/>
+      <c r="DN28" s="184"/>
+      <c r="DO28" s="184"/>
+      <c r="DP28" s="184"/>
+      <c r="DQ28" s="184"/>
+      <c r="DR28" s="184"/>
+      <c r="DS28" s="184"/>
+      <c r="DT28" s="184"/>
+      <c r="DU28" s="184"/>
+      <c r="DV28" s="184"/>
+      <c r="DW28" s="184"/>
+      <c r="DX28" s="184"/>
+      <c r="DY28" s="184"/>
+      <c r="DZ28" s="184"/>
+      <c r="EA28" s="184"/>
+      <c r="EB28" s="184"/>
+      <c r="EC28" s="184"/>
+      <c r="ED28" s="184"/>
+      <c r="EE28" s="184"/>
+      <c r="EF28" s="184"/>
+      <c r="EG28" s="184"/>
+      <c r="EH28" s="184"/>
+      <c r="EI28" s="184"/>
+      <c r="EJ28" s="184"/>
+      <c r="EK28" s="184"/>
+      <c r="EL28" s="184"/>
+      <c r="EM28" s="184"/>
+      <c r="EN28" s="184"/>
+      <c r="EO28" s="184"/>
+      <c r="EP28" s="184"/>
+      <c r="EQ28" s="184"/>
+      <c r="ER28" s="184"/>
+      <c r="ES28" s="184"/>
+      <c r="ET28" s="184"/>
+      <c r="EU28" s="184"/>
+      <c r="EV28" s="184"/>
+      <c r="EW28" s="184"/>
+      <c r="EX28" s="184"/>
+      <c r="EY28" s="184"/>
+      <c r="EZ28" s="184"/>
+      <c r="FA28" s="184"/>
+      <c r="FB28" s="184"/>
+      <c r="FC28" s="184"/>
+      <c r="FD28" s="184"/>
+      <c r="FE28" s="184"/>
+      <c r="FF28" s="184"/>
+      <c r="FG28" s="184"/>
+      <c r="FH28" s="184"/>
+      <c r="FI28" s="184"/>
+      <c r="FJ28" s="184"/>
+      <c r="FK28" s="184"/>
+      <c r="FL28" s="184"/>
+      <c r="FM28" s="184"/>
+      <c r="FN28" s="184"/>
+      <c r="FO28" s="184"/>
+      <c r="FP28" s="184"/>
+      <c r="FQ28" s="184"/>
+      <c r="FR28" s="184"/>
+      <c r="FS28" s="184"/>
+      <c r="FT28" s="184"/>
+      <c r="FU28" s="184"/>
+      <c r="FV28" s="184"/>
+      <c r="FW28" s="184"/>
+      <c r="FX28" s="184"/>
+      <c r="FY28" s="184"/>
+      <c r="FZ28" s="184"/>
+      <c r="GA28" s="184"/>
+      <c r="GB28" s="184"/>
+      <c r="GC28" s="184"/>
+      <c r="GD28" s="184"/>
+      <c r="GE28" s="184"/>
+      <c r="GF28" s="184"/>
+      <c r="GG28" s="184"/>
+      <c r="GH28" s="184"/>
+      <c r="GI28" s="184"/>
+      <c r="GJ28" s="184"/>
+      <c r="GK28" s="184"/>
+      <c r="GL28" s="184"/>
       <c r="GM28" s="92"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="167"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="167"/>
-      <c r="R29" s="167"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="165"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
+      <c r="A30" s="186"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
       <c r="K30" s="93"/>
       <c r="L30" s="93"/>
       <c r="M30" s="93"/>
@@ -7537,16 +7687,16 @@
       <c r="R30" s="93"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="165"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
       <c r="K31" s="93"/>
       <c r="L31" s="93"/>
       <c r="M31" s="93"/>
@@ -7558,6 +7708,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -7571,28 +7743,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -7619,14 +7769,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -7819,11 +7969,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="246" t="s">
+      <c r="E27" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="247"/>
-      <c r="G27" s="248"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="245"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -8131,7 +8281,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8147,10 +8297,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8177,8 +8327,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8217,14 +8367,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="99">
@@ -8239,30 +8389,36 @@
       <c r="D5" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-    </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="12.75">
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+    </row>
+    <row r="6" spans="1:10" s="254" customFormat="1" ht="12.75">
       <c r="A6" s="135">
         <v>2</v>
       </c>
-      <c r="B6" s="139">
+      <c r="B6" s="249">
         <v>2</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="204"/>
+      <c r="C6" s="250" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="250" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="251" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="253"/>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="136">
@@ -8321,12 +8477,12 @@
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="190"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="73">
@@ -8337,12 +8493,12 @@
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="190"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="74">
@@ -8353,12 +8509,12 @@
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="190"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="75">
@@ -8369,12 +8525,12 @@
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="190"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="76">
@@ -8385,12 +8541,12 @@
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="190"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -8401,12 +8557,12 @@
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="68">
@@ -8417,12 +8573,12 @@
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="69">
@@ -8433,12 +8589,12 @@
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="190"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="70">
@@ -8449,12 +8605,12 @@
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="190"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="71">
@@ -8465,12 +8621,12 @@
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="190"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="72">
@@ -8481,12 +8637,12 @@
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="190"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="73">
@@ -8497,12 +8653,12 @@
       </c>
       <c r="C21" s="63"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="190"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="74">
@@ -8513,12 +8669,12 @@
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="190"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="75">
@@ -8529,12 +8685,12 @@
       </c>
       <c r="C23" s="63"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="190"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="76">
@@ -8545,12 +8701,12 @@
       </c>
       <c r="C24" s="63"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="190"/>
+      <c r="H24" s="190"/>
+      <c r="I24" s="190"/>
+      <c r="J24" s="190"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -8561,12 +8717,12 @@
       </c>
       <c r="C25" s="63"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="190"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="68">
@@ -8577,12 +8733,12 @@
       </c>
       <c r="C26" s="63"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="190"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="69">
@@ -8593,12 +8749,12 @@
       </c>
       <c r="C27" s="63"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="190"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="70">
@@ -8609,12 +8765,12 @@
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="187"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="71">
@@ -8625,12 +8781,12 @@
       </c>
       <c r="C29" s="63"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="190"/>
+      <c r="J29" s="190"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="72">
@@ -8641,12 +8797,12 @@
       </c>
       <c r="C30" s="63"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="190"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="73">
@@ -8657,12 +8813,12 @@
       </c>
       <c r="C31" s="63"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="190"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="74">
@@ -8673,12 +8829,12 @@
       </c>
       <c r="C32" s="63"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="190"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="75">
@@ -8689,12 +8845,12 @@
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="190"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="76">
@@ -8705,26 +8861,20 @@
       </c>
       <c r="C34" s="63"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -8741,11 +8891,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -8790,10 +8946,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8824,8 +8980,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8856,20 +9012,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="205" t="s">
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="206"/>
+      <c r="J4" s="203"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -8880,10 +9036,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="212" t="s">
+      <c r="I5" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="213"/>
+      <c r="J5" s="210"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -8894,8 +9050,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="215"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="212"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -8906,8 +9062,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="215"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="212"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -8918,8 +9074,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="215"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="212"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -8930,8 +9086,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="215"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="212"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -8942,8 +9098,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="217"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="214"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -8954,10 +9110,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="205" t="s">
+      <c r="I11" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="206"/>
+      <c r="J11" s="203"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -8968,10 +9124,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="208" t="s">
+      <c r="I12" s="205" t="s">
         <v>166</v>
       </c>
-      <c r="J12" s="209"/>
+      <c r="J12" s="206"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -8982,8 +9138,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="211"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="208"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -8994,8 +9150,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="211"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="208"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -9006,8 +9162,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="211"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="208"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -9018,8 +9174,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="211"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="208"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -9030,8 +9186,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="211"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="208"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -9042,8 +9198,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="211"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="208"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -9054,8 +9210,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="211"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="208"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -9066,8 +9222,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="211"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="208"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -9078,8 +9234,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="211"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="208"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -9090,8 +9246,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="211"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="208"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -9102,8 +9258,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="211"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -9114,8 +9270,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="211"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -9126,8 +9282,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="211"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -9138,8 +9294,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="211"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -9150,8 +9306,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="211"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -9162,8 +9318,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="211"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -9174,8 +9330,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="211"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="208"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -9186,8 +9342,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="211"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="208"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -9198,8 +9354,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="211"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -9210,8 +9366,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="211"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="208"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -9222,8 +9378,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="211"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -9234,8 +9390,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="211"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -9246,8 +9402,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="208"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -9258,8 +9414,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="211"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="208"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -9270,8 +9426,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="211"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -9282,8 +9438,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="211"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="208"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -9294,8 +9450,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="211"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="208"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -9306,8 +9462,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="211"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -9318,8 +9474,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="210"/>
-      <c r="J41" s="211"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="208"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -9330,8 +9486,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="210"/>
-      <c r="J42" s="211"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="208"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -9342,8 +9498,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="210"/>
-      <c r="J43" s="211"/>
+      <c r="I43" s="207"/>
+      <c r="J43" s="208"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -9354,8 +9510,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="210"/>
-      <c r="J44" s="211"/>
+      <c r="I44" s="207"/>
+      <c r="J44" s="208"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -9366,8 +9522,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="I45" s="207"/>
+      <c r="J45" s="208"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -9378,8 +9534,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="210"/>
-      <c r="J46" s="211"/>
+      <c r="I46" s="207"/>
+      <c r="J46" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9435,13 +9591,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
@@ -9449,16 +9605,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="218" t="s">
+      <c r="H1" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="219"/>
-      <c r="J1" s="220" t="str">
+      <c r="I1" s="216"/>
+      <c r="J1" s="217" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2061</v>
       </c>
-      <c r="K1" s="221"/>
-      <c r="L1" s="222"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="219"/>
       <c r="M1" s="30" t="s">
         <v>5</v>
       </c>
@@ -9475,11 +9631,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
       <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
@@ -9487,16 +9643,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="H2" s="218" t="s">
+      <c r="H2" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220" t="str">
+      <c r="I2" s="216"/>
+      <c r="J2" s="217" t="str">
         <f>'Update History'!F2</f>
         <v>Đánh giá hỗ trợ khách hàng</v>
       </c>
-      <c r="K2" s="221"/>
-      <c r="L2" s="222"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="219"/>
       <c r="M2" s="30" t="s">
         <v>6</v>
       </c>
@@ -10503,7 +10659,7 @@
       <c r="A5" s="98">
         <v>1</v>
       </c>
-      <c r="B5" s="226">
+      <c r="B5" s="223">
         <v>92</v>
       </c>
       <c r="C5" s="161">
@@ -10517,13 +10673,13 @@
       </c>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="223" t="s">
+      <c r="H5" s="220" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="223" t="s">
+      <c r="I5" s="220" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="226" t="s">
+      <c r="J5" s="223" t="s">
         <v>158</v>
       </c>
       <c r="K5" s="99"/>
@@ -10532,7 +10688,7 @@
       <c r="A6" s="123">
         <v>2</v>
       </c>
-      <c r="B6" s="227"/>
+      <c r="B6" s="224"/>
       <c r="C6" s="159">
         <v>1</v>
       </c>
@@ -10544,16 +10700,16 @@
       </c>
       <c r="F6" s="124"/>
       <c r="G6" s="127"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="227"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="224"/>
       <c r="K6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="25" customFormat="1" ht="22.5">
       <c r="A7" s="98">
         <v>3</v>
       </c>
-      <c r="B7" s="228"/>
+      <c r="B7" s="225"/>
       <c r="C7" s="159">
         <v>1</v>
       </c>
@@ -10565,9 +10721,9 @@
       </c>
       <c r="F7" s="99"/>
       <c r="G7" s="100"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="228"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="225"/>
       <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:17" s="33" customFormat="1" ht="11.25">
@@ -10655,7 +10811,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="96"/>
@@ -10691,7 +10847,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="230"/>
+      <c r="A2" s="232"/>
       <c r="B2" s="97"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -10740,15 +10896,15 @@
       <c r="E4" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="199" t="s">
+      <c r="F4" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199" t="s">
+      <c r="G4" s="187"/>
+      <c r="H4" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A5" s="32">
@@ -10758,11 +10914,11 @@
       <c r="C5" s="114"/>
       <c r="D5" s="114"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="234"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="233"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="230"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A6" s="32">
@@ -10772,11 +10928,11 @@
       <c r="C6" s="114"/>
       <c r="D6" s="114"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="232"/>
-      <c r="J6" s="233"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="230"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A7" s="32">
@@ -10786,11 +10942,11 @@
       <c r="C7" s="114"/>
       <c r="D7" s="114"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="233"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="230"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -10800,11 +10956,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="233"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="230"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -10814,11 +10970,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="233"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="230"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -10828,11 +10984,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="233"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="230"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -10842,11 +10998,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="233"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="228"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="230"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -10856,11 +11012,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="233"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="230"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -10870,11 +11026,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="233"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="230"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -10884,20 +11040,21 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="235"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="233"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="229"/>
+      <c r="J14" s="230"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F10:G10"/>
@@ -10910,12 +11067,11 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
@@ -10933,8 +11089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1048243"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:K5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10961,21 +11117,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="239" t="str">
+      <c r="G1" s="233" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="239"/>
+      <c r="H1" s="233"/>
       <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10993,28 +11149,28 @@
       <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="236" t="s">
+      <c r="N1" s="239" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="237"/>
-      <c r="P1" s="238"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="241"/>
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="239" t="str">
+      <c r="G2" s="233" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="H2" s="239"/>
+      <c r="H2" s="233"/>
       <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
@@ -11032,12 +11188,12 @@
       <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="236" t="str">
+      <c r="N2" s="239" t="str">
         <f>'Update History'!J2</f>
         <v>09/02/2018</v>
       </c>
-      <c r="O2" s="237"/>
-      <c r="P2" s="238"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="241"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
     </row>
@@ -11063,12 +11219,12 @@
       <c r="G4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="205" t="s">
+      <c r="H4" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="206"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="203"/>
       <c r="L4" s="36" t="s">
         <v>56</v>
       </c>
@@ -11105,12 +11261,12 @@
       <c r="G5" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="196" t="s">
+      <c r="H5" s="246" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="244"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="248"/>
       <c r="L5" s="145" t="s">
         <v>205</v>
       </c>
@@ -11169,25 +11325,47 @@
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
     </row>
-    <row r="7" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
+    <row r="7" spans="1:18" s="269" customFormat="1" ht="81" customHeight="1">
+      <c r="A7" s="255"/>
+      <c r="B7" s="256">
+        <v>92</v>
+      </c>
+      <c r="C7" s="257">
+        <v>2</v>
+      </c>
+      <c r="D7" s="258" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="259" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="259" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="260" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="261" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="263"/>
+      <c r="L7" s="264" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="264" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="265" t="s">
+        <v>187</v>
+      </c>
+      <c r="O7" s="266" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="268"/>
+      <c r="R7" s="268"/>
     </row>
     <row r="8" spans="1:18" s="33" customFormat="1" ht="11.25">
       <c r="A8" s="123"/>
@@ -11317,10 +11495,10 @@
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
       <c r="G14" s="105"/>
-      <c r="H14" s="240"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="242"/>
+      <c r="H14" s="234"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="235"/>
+      <c r="K14" s="236"/>
       <c r="L14" s="164"/>
       <c r="M14" s="164"/>
       <c r="N14" s="163"/>
@@ -11358,9 +11536,9 @@
       <c r="F16" s="106"/>
       <c r="G16" s="105"/>
       <c r="H16" s="196"/>
-      <c r="I16" s="243"/>
-      <c r="J16" s="243"/>
-      <c r="K16" s="244"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="238"/>
       <c r="L16" s="145"/>
       <c r="M16" s="145"/>
       <c r="N16" s="160"/>
@@ -11378,9 +11556,9 @@
       <c r="F17" s="106"/>
       <c r="G17" s="105"/>
       <c r="H17" s="196"/>
-      <c r="I17" s="243"/>
-      <c r="J17" s="243"/>
-      <c r="K17" s="244"/>
+      <c r="I17" s="237"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="238"/>
       <c r="L17" s="145"/>
       <c r="M17" s="145"/>
       <c r="N17" s="160"/>
@@ -11398,9 +11576,9 @@
       <c r="F18" s="106"/>
       <c r="G18" s="105"/>
       <c r="H18" s="196"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="244"/>
+      <c r="I18" s="237"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="238"/>
       <c r="L18" s="145"/>
       <c r="M18" s="145"/>
       <c r="N18" s="160"/>
@@ -11435,6 +11613,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="21">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
@@ -11450,15 +11634,9 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H17:K17"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048243:N1048576 N16:N18 N5"/>
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048243:N1048576 N16:N18 N5 N7"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O19">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
@@ -11484,8 +11662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11501,10 +11679,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -11535,8 +11713,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -11782,7 +11960,7 @@
       <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" ht="12" customHeight="1">
-      <c r="A18" s="223" t="s">
+      <c r="A18" s="220" t="s">
         <v>201</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -11801,7 +11979,7 @@
       <c r="M18" s="40"/>
     </row>
     <row r="19" spans="1:13" ht="12" customHeight="1">
-      <c r="A19" s="225"/>
+      <c r="A19" s="222"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -11908,7 +12086,7 @@
       <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="12" customHeight="1">
-      <c r="A26" s="223" t="s">
+      <c r="A26" s="220" t="s">
         <v>201</v>
       </c>
       <c r="B26" s="40"/>
@@ -11925,7 +12103,7 @@
       <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" ht="12" customHeight="1">
-      <c r="A27" s="224"/>
+      <c r="A27" s="221"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -11940,7 +12118,7 @@
       <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" ht="12" customHeight="1">
-      <c r="A28" s="224"/>
+      <c r="A28" s="221"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -11955,7 +12133,7 @@
       <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" ht="12" customHeight="1">
-      <c r="A29" s="224"/>
+      <c r="A29" s="221"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -11970,7 +12148,7 @@
       <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1">
-      <c r="A30" s="224"/>
+      <c r="A30" s="221"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -11985,7 +12163,7 @@
       <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" ht="12" customHeight="1">
-      <c r="A31" s="224"/>
+      <c r="A31" s="221"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
@@ -12000,7 +12178,7 @@
       <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1">
-      <c r="A32" s="224"/>
+      <c r="A32" s="221"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
@@ -12015,7 +12193,7 @@
       <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1">
-      <c r="A33" s="224"/>
+      <c r="A33" s="221"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
@@ -12030,7 +12208,7 @@
       <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1">
-      <c r="A34" s="224"/>
+      <c r="A34" s="221"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
@@ -12045,7 +12223,7 @@
       <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1">
-      <c r="A35" s="224"/>
+      <c r="A35" s="221"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -12060,7 +12238,7 @@
       <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:13" ht="12" customHeight="1">
-      <c r="A36" s="224"/>
+      <c r="A36" s="221"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -12075,7 +12253,7 @@
       <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13" ht="12" customHeight="1">
-      <c r="A37" s="224"/>
+      <c r="A37" s="221"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -12090,7 +12268,7 @@
       <c r="M37" s="40"/>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1">
-      <c r="A38" s="224"/>
+      <c r="A38" s="221"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
@@ -12105,7 +12283,7 @@
       <c r="M38" s="40"/>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1">
-      <c r="A39" s="224"/>
+      <c r="A39" s="221"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -12120,7 +12298,7 @@
       <c r="M39" s="40"/>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1">
-      <c r="A40" s="224"/>
+      <c r="A40" s="221"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -12135,7 +12313,7 @@
       <c r="M40" s="40"/>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1">
-      <c r="A41" s="224"/>
+      <c r="A41" s="221"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
@@ -12150,7 +12328,7 @@
       <c r="M41" s="40"/>
     </row>
     <row r="42" spans="1:13" ht="12" customHeight="1">
-      <c r="A42" s="224"/>
+      <c r="A42" s="221"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
@@ -12165,7 +12343,7 @@
       <c r="M42" s="40"/>
     </row>
     <row r="43" spans="1:13" ht="12" customHeight="1">
-      <c r="A43" s="224"/>
+      <c r="A43" s="221"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
@@ -12180,7 +12358,7 @@
       <c r="M43" s="40"/>
     </row>
     <row r="44" spans="1:13" ht="12" customHeight="1">
-      <c r="A44" s="224"/>
+      <c r="A44" s="221"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
@@ -12195,7 +12373,7 @@
       <c r="M44" s="40"/>
     </row>
     <row r="45" spans="1:13" ht="12" customHeight="1">
-      <c r="A45" s="224"/>
+      <c r="A45" s="221"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -12210,7 +12388,7 @@
       <c r="M45" s="40"/>
     </row>
     <row r="46" spans="1:13" ht="12" customHeight="1">
-      <c r="A46" s="224"/>
+      <c r="A46" s="221"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
@@ -12225,7 +12403,7 @@
       <c r="M46" s="40"/>
     </row>
     <row r="47" spans="1:13" ht="12" customHeight="1">
-      <c r="A47" s="224"/>
+      <c r="A47" s="221"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
@@ -12240,7 +12418,7 @@
       <c r="M47" s="40"/>
     </row>
     <row r="48" spans="1:13" ht="12" customHeight="1">
-      <c r="A48" s="224"/>
+      <c r="A48" s="221"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
       <c r="D48" s="40"/>
@@ -12255,7 +12433,7 @@
       <c r="M48" s="40"/>
     </row>
     <row r="49" spans="1:13" ht="12" customHeight="1">
-      <c r="A49" s="224"/>
+      <c r="A49" s="221"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
       <c r="D49" s="40"/>
@@ -12270,7 +12448,7 @@
       <c r="M49" s="40"/>
     </row>
     <row r="50" spans="1:13" ht="12" customHeight="1">
-      <c r="A50" s="224"/>
+      <c r="A50" s="221"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
       <c r="D50" s="40"/>
@@ -12285,7 +12463,7 @@
       <c r="M50" s="40"/>
     </row>
     <row r="51" spans="1:13" ht="12" customHeight="1">
-      <c r="A51" s="224"/>
+      <c r="A51" s="221"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
@@ -12300,7 +12478,7 @@
       <c r="M51" s="40"/>
     </row>
     <row r="52" spans="1:13" ht="12" customHeight="1">
-      <c r="A52" s="224"/>
+      <c r="A52" s="221"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
@@ -12315,7 +12493,7 @@
       <c r="M52" s="40"/>
     </row>
     <row r="53" spans="1:13" ht="12" customHeight="1">
-      <c r="A53" s="224"/>
+      <c r="A53" s="221"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
@@ -12330,7 +12508,7 @@
       <c r="M53" s="40"/>
     </row>
     <row r="54" spans="1:13" ht="12" customHeight="1">
-      <c r="A54" s="224"/>
+      <c r="A54" s="221"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
       <c r="D54" s="40"/>
@@ -12345,7 +12523,7 @@
       <c r="M54" s="40"/>
     </row>
     <row r="55" spans="1:13" ht="12" customHeight="1">
-      <c r="A55" s="224"/>
+      <c r="A55" s="221"/>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
       <c r="D55" s="40"/>
@@ -12360,7 +12538,7 @@
       <c r="M55" s="40"/>
     </row>
     <row r="56" spans="1:13" ht="12" customHeight="1">
-      <c r="A56" s="224"/>
+      <c r="A56" s="221"/>
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
       <c r="D56" s="40"/>
@@ -12375,7 +12553,7 @@
       <c r="M56" s="40"/>
     </row>
     <row r="57" spans="1:13" ht="12" customHeight="1">
-      <c r="A57" s="224"/>
+      <c r="A57" s="221"/>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
       <c r="D57" s="40"/>
@@ -12390,7 +12568,7 @@
       <c r="M57" s="40"/>
     </row>
     <row r="58" spans="1:13" ht="12" customHeight="1">
-      <c r="A58" s="225"/>
+      <c r="A58" s="222"/>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
@@ -13386,10 +13564,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -13420,8 +13598,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
